--- a/Lab5/output500.xlsx
+++ b/Lab5/output500.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8d1d5de8564aae/NCTU_Course/2018_Spring/EmbeddedSystem/Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\NCTU_Course\2018_Spring\EmbeddedSystem\Lab\Lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="output" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -719,6 +719,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>ACCx low</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>-pass </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>filter</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -758,6 +792,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>raw</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1395,6 +1432,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>filter</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2095,6 +2135,7 @@
         <c:axId val="1391039696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2157,7 +2198,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4256779086512566"/>
+          <c:y val="0.9434007754106879"/>
+          <c:w val="0.18508310134062356"/>
+          <c:h val="3.4264199208601465E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2171,7 +2221,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2784,16 +2834,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>549276</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3082,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="M311" sqref="M311"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="G334" sqref="G334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -21134,7 +21184,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
